--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/del_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/del_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,201 +394,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -599,7 +607,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +627,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -627,7 +635,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>53</v>
@@ -635,7 +643,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -643,7 +651,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>57</v>
@@ -651,7 +659,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>59</v>
@@ -659,162 +667,170 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>121</v>
+      <c r="B27">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +840,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>51</v>
@@ -852,15 +868,15 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>54</v>
@@ -868,7 +884,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>56</v>
@@ -876,7 +892,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>58</v>
@@ -884,162 +900,170 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>120</v>
+      <c r="B27">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1093,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1077,7 +1101,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -1085,7 +1109,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>54</v>
@@ -1093,7 +1117,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>55</v>
@@ -1101,7 +1125,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>57</v>
@@ -1109,7 +1133,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>59</v>
@@ -1117,154 +1141,162 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>119</v>
+      <c r="B27">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1306,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1326,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1302,7 +1334,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>51</v>
@@ -1310,7 +1342,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>53</v>
@@ -1318,7 +1350,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>55</v>
@@ -1326,7 +1358,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>56</v>
@@ -1334,7 +1366,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>58</v>
@@ -1342,7 +1374,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -1350,23 +1382,23 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -1374,7 +1406,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>67</v>
@@ -1382,7 +1414,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>69</v>
@@ -1390,106 +1422,114 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>118</v>
+      <c r="B27">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1559,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -1527,7 +1567,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>51</v>
@@ -1535,7 +1575,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>53</v>
@@ -1543,7 +1583,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -1551,7 +1591,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>56</v>
@@ -1559,15 +1599,15 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>59</v>
@@ -1575,7 +1615,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>61</v>
@@ -1583,7 +1623,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -1591,15 +1631,15 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>66</v>
@@ -1607,7 +1647,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -1615,7 +1655,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>70</v>
@@ -1623,98 +1663,106 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>117</v>
+      <c r="B27">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1772,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1744,15 +1792,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>51</v>
@@ -1760,15 +1808,15 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -1776,15 +1824,15 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>57</v>
@@ -1792,7 +1840,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>59</v>
@@ -1800,7 +1848,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -1808,7 +1856,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>62</v>
@@ -1816,7 +1864,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>64</v>
@@ -1824,7 +1872,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>66</v>
@@ -1832,114 +1880,122 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>117</v>
+      <c r="B27">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1969,15 +2025,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>51</v>
@@ -1985,15 +2041,15 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -2001,15 +2057,15 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>57</v>
@@ -2017,15 +2073,15 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -2033,7 +2089,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>62</v>
@@ -2041,15 +2097,15 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>65</v>
@@ -2057,7 +2113,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>67</v>
@@ -2065,7 +2121,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -2073,31 +2129,31 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>77</v>
@@ -2105,66 +2161,74 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>116</v>
+      <c r="B27">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2238,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,63 +2258,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -2258,15 +2322,15 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>63</v>
@@ -2274,7 +2338,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>65</v>
@@ -2282,15 +2346,15 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>68</v>
@@ -2298,7 +2362,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -2306,7 +2370,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>72</v>
@@ -2314,7 +2378,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>74</v>
@@ -2322,74 +2386,82 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>116</v>
+      <c r="B27">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2419,79 +2491,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>63</v>
@@ -2499,23 +2571,23 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>68</v>
@@ -2523,98 +2595,106 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>115</v>
+      <c r="B27">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2704,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2644,202 +2724,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>114</v>
+      <c r="B27">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2869,201 +2957,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -3074,7 +3170,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3094,202 +3190,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>114</v>
+      <c r="B27">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3403,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3319,202 +3423,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>114</v>
+      <c r="B27">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3636,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3544,202 +3656,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>114</v>
+      <c r="B27">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3869,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3769,202 +3889,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>117</v>
+      <c r="B27">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +4102,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3994,202 +4122,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>121</v>
+      <c r="B27">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4199,7 +4335,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4219,201 +4355,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -4424,7 +4568,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4444,201 +4588,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -4649,7 +4801,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4669,201 +4821,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -4874,7 +5034,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4894,202 +5054,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>130</v>
+      <c r="B27">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5099,7 +5267,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5119,202 +5287,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>127</v>
+      <c r="B27">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5324,7 +5500,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5344,202 +5520,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>124</v>
+      <c r="B27">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +5733,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5569,202 +5753,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>122</v>
+      <c r="B27">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
